--- a/Tefas Funds/data/fon_kategorileri_kontrol.xlsx
+++ b/Tefas Funds/data/fon_kategorileri_kontrol.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Portfolio\Tefas Funds\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17334D-5F3D-4C25-9CB3-B8349768603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5871A9-84C0-4F4A-A7E2-22E3ADF2EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fon_Kategorileri" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fon_Kategorileri!$A$1:$A$851</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5182,18 +5185,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5223,12 +5220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5531,10 +5527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A815" workbookViewId="0">
-      <selection activeCell="H830" sqref="H830"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B725" sqref="B725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5577,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5588,7 +5585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5632,7 +5629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5676,7 +5673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5687,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5698,7 +5695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5709,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5720,7 +5717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5742,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5775,7 +5772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5786,7 +5783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5808,7 +5805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -5841,7 +5838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5852,7 +5849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5863,7 +5860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -5885,7 +5882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -5951,7 +5948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -5962,7 +5959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +6003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -6017,7 +6014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -6028,7 +6025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -6039,7 +6036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -6050,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -6061,7 +6058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -6072,7 +6069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -6094,7 +6091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -6105,7 +6102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -6116,7 +6113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -6127,7 +6124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -6138,7 +6135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -6149,7 +6146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -6182,7 +6179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -6193,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -6204,7 +6201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -6215,7 +6212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -6226,7 +6223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -6248,7 +6245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -6281,7 +6278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -6314,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -6325,7 +6322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -6369,7 +6366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -6380,7 +6377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -6402,7 +6399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -6435,7 +6432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -6446,7 +6443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -6457,7 +6454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -6468,7 +6465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -6479,7 +6476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -6501,7 +6498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -6523,7 +6520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -6545,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -6556,7 +6553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>195</v>
       </c>
@@ -6567,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>197</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -6600,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -6622,7 +6619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -6633,7 +6630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>211</v>
       </c>
@@ -6655,7 +6652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -6666,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>215</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -6699,7 +6696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>221</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -6721,7 +6718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>225</v>
       </c>
@@ -6732,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -6743,7 +6740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -6754,7 +6751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>231</v>
       </c>
@@ -6765,7 +6762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -6776,7 +6773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6798,7 +6795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -6809,7 +6806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>241</v>
       </c>
@@ -6820,7 +6817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>243</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -6842,7 +6839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>247</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>249</v>
       </c>
@@ -6864,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -6875,7 +6872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>253</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -6908,7 +6905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -6919,7 +6916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>261</v>
       </c>
@@ -6930,7 +6927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>263</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>265</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>267</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>269</v>
       </c>
@@ -6974,7 +6971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -6996,7 +6993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>275</v>
       </c>
@@ -7007,7 +7004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>277</v>
       </c>
@@ -7018,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -7040,7 +7037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>283</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>285</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -7073,7 +7070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>289</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>291</v>
       </c>
@@ -7095,7 +7092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>293</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>295</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>297</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>299</v>
       </c>
@@ -7139,7 +7136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>301</v>
       </c>
@@ -7150,7 +7147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>303</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>305</v>
       </c>
@@ -7172,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>307</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>309</v>
       </c>
@@ -7194,7 +7191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>311</v>
       </c>
@@ -7205,7 +7202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>313</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>315</v>
       </c>
@@ -7227,7 +7224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>317</v>
       </c>
@@ -7238,7 +7235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -7249,7 +7246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>321</v>
       </c>
@@ -7260,7 +7257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -7282,7 +7279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -7293,7 +7290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -7304,7 +7301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>331</v>
       </c>
@@ -7315,7 +7312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -7326,7 +7323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>335</v>
       </c>
@@ -7337,7 +7334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>337</v>
       </c>
@@ -7348,7 +7345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>339</v>
       </c>
@@ -7359,7 +7356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>341</v>
       </c>
@@ -7370,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>343</v>
       </c>
@@ -7381,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>345</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>347</v>
       </c>
@@ -7403,7 +7400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>349</v>
       </c>
@@ -7414,7 +7411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>351</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -7447,7 +7444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -7458,7 +7455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>359</v>
       </c>
@@ -7469,7 +7466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>361</v>
       </c>
@@ -7480,7 +7477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>363</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>365</v>
       </c>
@@ -7502,7 +7499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>367</v>
       </c>
@@ -7513,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>369</v>
       </c>
@@ -7524,7 +7521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>371</v>
       </c>
@@ -7535,7 +7532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -7546,7 +7543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>375</v>
       </c>
@@ -7557,7 +7554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -7568,7 +7565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>379</v>
       </c>
@@ -7579,7 +7576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>381</v>
       </c>
@@ -7590,7 +7587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>383</v>
       </c>
@@ -7601,7 +7598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>385</v>
       </c>
@@ -7612,7 +7609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -7623,7 +7620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>391</v>
       </c>
@@ -7645,7 +7642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>393</v>
       </c>
@@ -7656,7 +7653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>395</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>397</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>399</v>
       </c>
@@ -7689,7 +7686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>401</v>
       </c>
@@ -7700,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>403</v>
       </c>
@@ -7711,7 +7708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -7722,7 +7719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>407</v>
       </c>
@@ -7733,7 +7730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>409</v>
       </c>
@@ -7744,7 +7741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>411</v>
       </c>
@@ -7755,7 +7752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>413</v>
       </c>
@@ -7766,7 +7763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>415</v>
       </c>
@@ -7777,7 +7774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>417</v>
       </c>
@@ -7788,7 +7785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>419</v>
       </c>
@@ -7799,7 +7796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>421</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>423</v>
       </c>
@@ -7821,7 +7818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>425</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>427</v>
       </c>
@@ -7843,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>429</v>
       </c>
@@ -7854,7 +7851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>431</v>
       </c>
@@ -7865,7 +7862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>433</v>
       </c>
@@ -7876,7 +7873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>435</v>
       </c>
@@ -7887,7 +7884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>437</v>
       </c>
@@ -7898,7 +7895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>439</v>
       </c>
@@ -7909,7 +7906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>441</v>
       </c>
@@ -7920,7 +7917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>443</v>
       </c>
@@ -7931,7 +7928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>445</v>
       </c>
@@ -7942,7 +7939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>447</v>
       </c>
@@ -7953,7 +7950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -7964,7 +7961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>451</v>
       </c>
@@ -7975,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>453</v>
       </c>
@@ -7986,7 +7983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>455</v>
       </c>
@@ -7997,7 +7994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>457</v>
       </c>
@@ -8008,7 +8005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>459</v>
       </c>
@@ -8019,7 +8016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>461</v>
       </c>
@@ -8030,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>463</v>
       </c>
@@ -8041,7 +8038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>465</v>
       </c>
@@ -8052,7 +8049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>467</v>
       </c>
@@ -8063,7 +8060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>469</v>
       </c>
@@ -8074,7 +8071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>471</v>
       </c>
@@ -8085,7 +8082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>473</v>
       </c>
@@ -8096,7 +8093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>475</v>
       </c>
@@ -8107,7 +8104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>477</v>
       </c>
@@ -8118,7 +8115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>479</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>481</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>483</v>
       </c>
@@ -8151,7 +8148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>485</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -8173,18 +8170,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>489</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s">
         <v>490</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -8195,7 +8192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>493</v>
       </c>
@@ -8206,7 +8203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>495</v>
       </c>
@@ -8217,7 +8214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>497</v>
       </c>
@@ -8228,7 +8225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>499</v>
       </c>
@@ -8239,7 +8236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>501</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>503</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>505</v>
       </c>
@@ -8272,7 +8269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>507</v>
       </c>
@@ -8283,7 +8280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>509</v>
       </c>
@@ -8294,7 +8291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>511</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>513</v>
       </c>
@@ -8316,7 +8313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>515</v>
       </c>
@@ -8327,7 +8324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>517</v>
       </c>
@@ -8338,7 +8335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>519</v>
       </c>
@@ -8349,7 +8346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>523</v>
       </c>
@@ -8371,7 +8368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>525</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>527</v>
       </c>
@@ -8393,7 +8390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>529</v>
       </c>
@@ -8404,7 +8401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>531</v>
       </c>
@@ -8415,7 +8412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>533</v>
       </c>
@@ -8426,7 +8423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>535</v>
       </c>
@@ -8437,7 +8434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>537</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>539</v>
       </c>
@@ -8459,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>541</v>
       </c>
@@ -8470,7 +8467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>543</v>
       </c>
@@ -8481,7 +8478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>545</v>
       </c>
@@ -8492,7 +8489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>547</v>
       </c>
@@ -8503,7 +8500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>549</v>
       </c>
@@ -8514,7 +8511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>551</v>
       </c>
@@ -8525,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>553</v>
       </c>
@@ -8536,7 +8533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>555</v>
       </c>
@@ -8547,7 +8544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>557</v>
       </c>
@@ -8558,7 +8555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>559</v>
       </c>
@@ -8569,7 +8566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>561</v>
       </c>
@@ -8580,7 +8577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>563</v>
       </c>
@@ -8591,7 +8588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>565</v>
       </c>
@@ -8602,7 +8599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>567</v>
       </c>
@@ -8613,7 +8610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>569</v>
       </c>
@@ -8624,7 +8621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>571</v>
       </c>
@@ -8635,7 +8632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>573</v>
       </c>
@@ -8646,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>575</v>
       </c>
@@ -8657,7 +8654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>577</v>
       </c>
@@ -8668,7 +8665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>579</v>
       </c>
@@ -8679,7 +8676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>581</v>
       </c>
@@ -8690,7 +8687,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>583</v>
       </c>
@@ -8701,7 +8698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>585</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>587</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>589</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>591</v>
       </c>
@@ -8745,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>593</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>595</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>597</v>
       </c>
@@ -8778,7 +8775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>599</v>
       </c>
@@ -8789,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>601</v>
       </c>
@@ -8800,7 +8797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>603</v>
       </c>
@@ -8811,7 +8808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>605</v>
       </c>
@@ -8822,7 +8819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>607</v>
       </c>
@@ -8833,7 +8830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>609</v>
       </c>
@@ -8844,7 +8841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>611</v>
       </c>
@@ -8855,7 +8852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>613</v>
       </c>
@@ -8866,7 +8863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>615</v>
       </c>
@@ -8877,7 +8874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>617</v>
       </c>
@@ -8888,7 +8885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>619</v>
       </c>
@@ -8899,7 +8896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>621</v>
       </c>
@@ -8910,7 +8907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>623</v>
       </c>
@@ -8921,7 +8918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>625</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>627</v>
       </c>
@@ -8943,7 +8940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>629</v>
       </c>
@@ -8954,7 +8951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -8965,7 +8962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>633</v>
       </c>
@@ -8976,7 +8973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>635</v>
       </c>
@@ -8987,7 +8984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>637</v>
       </c>
@@ -8998,7 +8995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>639</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>641</v>
       </c>
@@ -9020,7 +9017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>643</v>
       </c>
@@ -9031,7 +9028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>645</v>
       </c>
@@ -9042,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>647</v>
       </c>
@@ -9053,7 +9050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>649</v>
       </c>
@@ -9064,7 +9061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>651</v>
       </c>
@@ -9075,7 +9072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>653</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>655</v>
       </c>
@@ -9097,7 +9094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>657</v>
       </c>
@@ -9108,7 +9105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>659</v>
       </c>
@@ -9119,7 +9116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>661</v>
       </c>
@@ -9130,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>663</v>
       </c>
@@ -9141,7 +9138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>665</v>
       </c>
@@ -9152,7 +9149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>667</v>
       </c>
@@ -9163,7 +9160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>669</v>
       </c>
@@ -9174,7 +9171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>671</v>
       </c>
@@ -9185,7 +9182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>673</v>
       </c>
@@ -9196,7 +9193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>675</v>
       </c>
@@ -9207,7 +9204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>677</v>
       </c>
@@ -9218,7 +9215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>679</v>
       </c>
@@ -9229,7 +9226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>681</v>
       </c>
@@ -9240,7 +9237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>683</v>
       </c>
@@ -9251,7 +9248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>685</v>
       </c>
@@ -9262,7 +9259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>687</v>
       </c>
@@ -9273,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>689</v>
       </c>
@@ -9284,7 +9281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>691</v>
       </c>
@@ -9295,7 +9292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>693</v>
       </c>
@@ -9306,7 +9303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>695</v>
       </c>
@@ -9317,7 +9314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>697</v>
       </c>
@@ -9328,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>699</v>
       </c>
@@ -9339,7 +9336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>701</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>703</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>705</v>
       </c>
@@ -9372,7 +9369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>707</v>
       </c>
@@ -9383,7 +9380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>709</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>711</v>
       </c>
@@ -9405,7 +9402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>713</v>
       </c>
@@ -9416,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>715</v>
       </c>
@@ -9427,7 +9424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>717</v>
       </c>
@@ -9438,7 +9435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>719</v>
       </c>
@@ -9449,7 +9446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>721</v>
       </c>
@@ -9460,7 +9457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>723</v>
       </c>
@@ -9471,7 +9468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>725</v>
       </c>
@@ -9482,7 +9479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>727</v>
       </c>
@@ -9493,7 +9490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>729</v>
       </c>
@@ -9504,7 +9501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>731</v>
       </c>
@@ -9515,7 +9512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>733</v>
       </c>
@@ -9526,7 +9523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>735</v>
       </c>
@@ -9537,7 +9534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>737</v>
       </c>
@@ -9548,7 +9545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>739</v>
       </c>
@@ -9559,7 +9556,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>742</v>
       </c>
@@ -9570,7 +9567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>744</v>
       </c>
@@ -9581,7 +9578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>746</v>
       </c>
@@ -9592,7 +9589,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>748</v>
       </c>
@@ -9603,7 +9600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>750</v>
       </c>
@@ -9614,7 +9611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>752</v>
       </c>
@@ -9625,7 +9622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>754</v>
       </c>
@@ -9636,7 +9633,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>756</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>758</v>
       </c>
@@ -9658,7 +9655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>760</v>
       </c>
@@ -9669,7 +9666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>762</v>
       </c>
@@ -9680,7 +9677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>764</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>766</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>768</v>
       </c>
@@ -9713,7 +9710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>770</v>
       </c>
@@ -9724,7 +9721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>772</v>
       </c>
@@ -9735,7 +9732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>774</v>
       </c>
@@ -9746,7 +9743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>776</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>778</v>
       </c>
@@ -9768,7 +9765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>780</v>
       </c>
@@ -9779,7 +9776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>782</v>
       </c>
@@ -9790,7 +9787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>784</v>
       </c>
@@ -9801,7 +9798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>786</v>
       </c>
@@ -9812,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>788</v>
       </c>
@@ -9823,7 +9820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>790</v>
       </c>
@@ -9834,7 +9831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>792</v>
       </c>
@@ -9845,7 +9842,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>794</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>796</v>
       </c>
@@ -9867,7 +9864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>798</v>
       </c>
@@ -9878,7 +9875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>800</v>
       </c>
@@ -9889,7 +9886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>802</v>
       </c>
@@ -9900,7 +9897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>804</v>
       </c>
@@ -9911,7 +9908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>806</v>
       </c>
@@ -9922,7 +9919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>808</v>
       </c>
@@ -9933,7 +9930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>810</v>
       </c>
@@ -9944,7 +9941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>812</v>
       </c>
@@ -9955,7 +9952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>814</v>
       </c>
@@ -9966,7 +9963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>816</v>
       </c>
@@ -9977,7 +9974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>818</v>
       </c>
@@ -9988,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>820</v>
       </c>
@@ -9999,7 +9996,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>822</v>
       </c>
@@ -10010,7 +10007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>824</v>
       </c>
@@ -10021,7 +10018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>826</v>
       </c>
@@ -10032,7 +10029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>828</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>830</v>
       </c>
@@ -10054,7 +10051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>832</v>
       </c>
@@ -10065,7 +10062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>834</v>
       </c>
@@ -10076,7 +10073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>836</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>838</v>
       </c>
@@ -10098,7 +10095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>840</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>842</v>
       </c>
@@ -10120,7 +10117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>844</v>
       </c>
@@ -10131,7 +10128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>846</v>
       </c>
@@ -10142,7 +10139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>848</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>850</v>
       </c>
@@ -10164,7 +10161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>852</v>
       </c>
@@ -10175,7 +10172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>854</v>
       </c>
@@ -10186,7 +10183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>856</v>
       </c>
@@ -10197,7 +10194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>858</v>
       </c>
@@ -10208,7 +10205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>860</v>
       </c>
@@ -10219,7 +10216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>862</v>
       </c>
@@ -10230,7 +10227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>864</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>866</v>
       </c>
@@ -10252,7 +10249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>868</v>
       </c>
@@ -10263,7 +10260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>870</v>
       </c>
@@ -10274,7 +10271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>872</v>
       </c>
@@ -10285,7 +10282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>874</v>
       </c>
@@ -10296,7 +10293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>876</v>
       </c>
@@ -10307,7 +10304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>878</v>
       </c>
@@ -10318,7 +10315,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>880</v>
       </c>
@@ -10329,7 +10326,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>882</v>
       </c>
@@ -10340,7 +10337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>884</v>
       </c>
@@ -10351,7 +10348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>886</v>
       </c>
@@ -10362,7 +10359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>888</v>
       </c>
@@ -10373,7 +10370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>890</v>
       </c>
@@ -10384,7 +10381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>892</v>
       </c>
@@ -10395,7 +10392,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>894</v>
       </c>
@@ -10406,7 +10403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>896</v>
       </c>
@@ -10417,7 +10414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>898</v>
       </c>
@@ -10428,7 +10425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>900</v>
       </c>
@@ -10439,7 +10436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>902</v>
       </c>
@@ -10450,7 +10447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>904</v>
       </c>
@@ -10461,7 +10458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>906</v>
       </c>
@@ -10472,7 +10469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>908</v>
       </c>
@@ -10483,7 +10480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>910</v>
       </c>
@@ -10494,7 +10491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>912</v>
       </c>
@@ -10505,7 +10502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>914</v>
       </c>
@@ -10516,7 +10513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>916</v>
       </c>
@@ -10527,7 +10524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>918</v>
       </c>
@@ -10538,7 +10535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>920</v>
       </c>
@@ -10549,7 +10546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>922</v>
       </c>
@@ -10560,7 +10557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>924</v>
       </c>
@@ -10571,7 +10568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>926</v>
       </c>
@@ -10582,7 +10579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>928</v>
       </c>
@@ -10593,7 +10590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>930</v>
       </c>
@@ -10604,7 +10601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>932</v>
       </c>
@@ -10615,7 +10612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>934</v>
       </c>
@@ -10626,7 +10623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>936</v>
       </c>
@@ -10637,7 +10634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>938</v>
       </c>
@@ -10648,7 +10645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>940</v>
       </c>
@@ -10659,7 +10656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>942</v>
       </c>
@@ -10670,7 +10667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>944</v>
       </c>
@@ -10681,7 +10678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>946</v>
       </c>
@@ -10692,7 +10689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>948</v>
       </c>
@@ -10703,7 +10700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>950</v>
       </c>
@@ -10714,7 +10711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>952</v>
       </c>
@@ -10725,7 +10722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>954</v>
       </c>
@@ -10736,7 +10733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>956</v>
       </c>
@@ -10747,7 +10744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>958</v>
       </c>
@@ -10758,7 +10755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>960</v>
       </c>
@@ -10769,7 +10766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>962</v>
       </c>
@@ -10780,7 +10777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>964</v>
       </c>
@@ -10791,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>966</v>
       </c>
@@ -10802,7 +10799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>968</v>
       </c>
@@ -10813,7 +10810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>970</v>
       </c>
@@ -10824,7 +10821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>972</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>974</v>
       </c>
@@ -10846,7 +10843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>976</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>978</v>
       </c>
@@ -10868,7 +10865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>980</v>
       </c>
@@ -10879,7 +10876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>982</v>
       </c>
@@ -10890,7 +10887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>984</v>
       </c>
@@ -10901,7 +10898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>986</v>
       </c>
@@ -10912,7 +10909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>988</v>
       </c>
@@ -10923,7 +10920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>990</v>
       </c>
@@ -10934,7 +10931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>992</v>
       </c>
@@ -10945,7 +10942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>994</v>
       </c>
@@ -10956,7 +10953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>996</v>
       </c>
@@ -10967,7 +10964,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>998</v>
       </c>
@@ -10978,7 +10975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1000</v>
       </c>
@@ -10989,7 +10986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1002</v>
       </c>
@@ -11000,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1004</v>
       </c>
@@ -11011,7 +11008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1006</v>
       </c>
@@ -11022,7 +11019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1008</v>
       </c>
@@ -11033,7 +11030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1010</v>
       </c>
@@ -11044,7 +11041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1012</v>
       </c>
@@ -11055,7 +11052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1014</v>
       </c>
@@ -11066,7 +11063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1016</v>
       </c>
@@ -11077,7 +11074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1018</v>
       </c>
@@ -11088,7 +11085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1020</v>
       </c>
@@ -11099,7 +11096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1022</v>
       </c>
@@ -11110,7 +11107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1024</v>
       </c>
@@ -11121,7 +11118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1026</v>
       </c>
@@ -11132,7 +11129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1028</v>
       </c>
@@ -11143,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1030</v>
       </c>
@@ -11154,7 +11151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1032</v>
       </c>
@@ -11165,7 +11162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1034</v>
       </c>
@@ -11176,7 +11173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1036</v>
       </c>
@@ -11187,7 +11184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1038</v>
       </c>
@@ -11198,7 +11195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1040</v>
       </c>
@@ -11209,7 +11206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1042</v>
       </c>
@@ -11220,7 +11217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1044</v>
       </c>
@@ -11231,7 +11228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1046</v>
       </c>
@@ -11242,7 +11239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1048</v>
       </c>
@@ -11253,7 +11250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1050</v>
       </c>
@@ -11264,7 +11261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1052</v>
       </c>
@@ -11275,7 +11272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1054</v>
       </c>
@@ -11286,7 +11283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1056</v>
       </c>
@@ -11297,7 +11294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1058</v>
       </c>
@@ -11308,7 +11305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1060</v>
       </c>
@@ -11319,7 +11316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1062</v>
       </c>
@@ -11330,7 +11327,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1064</v>
       </c>
@@ -11341,7 +11338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1066</v>
       </c>
@@ -11352,7 +11349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1068</v>
       </c>
@@ -11363,7 +11360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1070</v>
       </c>
@@ -11374,7 +11371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1072</v>
       </c>
@@ -11385,7 +11382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1074</v>
       </c>
@@ -11396,7 +11393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1076</v>
       </c>
@@ -11407,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1078</v>
       </c>
@@ -11418,7 +11415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1080</v>
       </c>
@@ -11429,7 +11426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1082</v>
       </c>
@@ -11440,7 +11437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1084</v>
       </c>
@@ -11451,7 +11448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1086</v>
       </c>
@@ -11462,7 +11459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1088</v>
       </c>
@@ -11473,7 +11470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1090</v>
       </c>
@@ -11484,7 +11481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1092</v>
       </c>
@@ -11495,7 +11492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1094</v>
       </c>
@@ -11506,7 +11503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1096</v>
       </c>
@@ -11517,7 +11514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1098</v>
       </c>
@@ -11528,7 +11525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1100</v>
       </c>
@@ -11539,7 +11536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1102</v>
       </c>
@@ -11550,7 +11547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1104</v>
       </c>
@@ -11561,7 +11558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1106</v>
       </c>
@@ -11572,7 +11569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1108</v>
       </c>
@@ -11583,7 +11580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1110</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1112</v>
       </c>
@@ -11605,7 +11602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1114</v>
       </c>
@@ -11616,7 +11613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1116</v>
       </c>
@@ -11627,7 +11624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1118</v>
       </c>
@@ -11638,7 +11635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1120</v>
       </c>
@@ -11649,7 +11646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1122</v>
       </c>
@@ -11660,7 +11657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1124</v>
       </c>
@@ -11671,7 +11668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1126</v>
       </c>
@@ -11682,7 +11679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1128</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1130</v>
       </c>
@@ -11704,7 +11701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1132</v>
       </c>
@@ -11715,7 +11712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1134</v>
       </c>
@@ -11726,7 +11723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1136</v>
       </c>
@@ -11737,7 +11734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1138</v>
       </c>
@@ -11748,7 +11745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1140</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1142</v>
       </c>
@@ -11770,7 +11767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1144</v>
       </c>
@@ -11781,7 +11778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1146</v>
       </c>
@@ -11792,7 +11789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1148</v>
       </c>
@@ -11803,7 +11800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1150</v>
       </c>
@@ -11814,7 +11811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1152</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1154</v>
       </c>
@@ -11836,7 +11833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1156</v>
       </c>
@@ -11847,7 +11844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1158</v>
       </c>
@@ -11858,7 +11855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1160</v>
       </c>
@@ -11869,7 +11866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1162</v>
       </c>
@@ -11880,7 +11877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1164</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1166</v>
       </c>
@@ -11902,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1168</v>
       </c>
@@ -11913,7 +11910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1170</v>
       </c>
@@ -11924,7 +11921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1172</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1174</v>
       </c>
@@ -11946,7 +11943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1176</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1178</v>
       </c>
@@ -11968,7 +11965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1180</v>
       </c>
@@ -11979,7 +11976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1182</v>
       </c>
@@ -11990,7 +11987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1184</v>
       </c>
@@ -12001,7 +11998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1186</v>
       </c>
@@ -12012,7 +12009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1188</v>
       </c>
@@ -12023,7 +12020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1190</v>
       </c>
@@ -12034,7 +12031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1192</v>
       </c>
@@ -12045,7 +12042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1194</v>
       </c>
@@ -12056,7 +12053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1196</v>
       </c>
@@ -12067,7 +12064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1198</v>
       </c>
@@ -12078,7 +12075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1200</v>
       </c>
@@ -12089,7 +12086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1202</v>
       </c>
@@ -12100,7 +12097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1204</v>
       </c>
@@ -12111,7 +12108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1206</v>
       </c>
@@ -12122,7 +12119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1208</v>
       </c>
@@ -12133,7 +12130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1210</v>
       </c>
@@ -12144,7 +12141,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1212</v>
       </c>
@@ -12155,7 +12152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1214</v>
       </c>
@@ -12166,7 +12163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1216</v>
       </c>
@@ -12177,7 +12174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1218</v>
       </c>
@@ -12188,7 +12185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1220</v>
       </c>
@@ -12199,7 +12196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1222</v>
       </c>
@@ -12210,7 +12207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1224</v>
       </c>
@@ -12221,7 +12218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1226</v>
       </c>
@@ -12232,7 +12229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1228</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1230</v>
       </c>
@@ -12254,7 +12251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1232</v>
       </c>
@@ -12265,7 +12262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1234</v>
       </c>
@@ -12276,7 +12273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1236</v>
       </c>
@@ -12287,7 +12284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1238</v>
       </c>
@@ -12298,7 +12295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1240</v>
       </c>
@@ -12309,7 +12306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1242</v>
       </c>
@@ -12320,7 +12317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1244</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1246</v>
       </c>
@@ -12342,7 +12339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1248</v>
       </c>
@@ -12353,7 +12350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1250</v>
       </c>
@@ -12364,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1252</v>
       </c>
@@ -12375,7 +12372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1254</v>
       </c>
@@ -12386,7 +12383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1256</v>
       </c>
@@ -12397,7 +12394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1258</v>
       </c>
@@ -12408,7 +12405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1260</v>
       </c>
@@ -12419,7 +12416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1262</v>
       </c>
@@ -12430,7 +12427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1264</v>
       </c>
@@ -12441,7 +12438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1266</v>
       </c>
@@ -12452,7 +12449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1268</v>
       </c>
@@ -12463,7 +12460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1270</v>
       </c>
@@ -12474,7 +12471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1272</v>
       </c>
@@ -12485,7 +12482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1274</v>
       </c>
@@ -12496,7 +12493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1276</v>
       </c>
@@ -12507,7 +12504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1278</v>
       </c>
@@ -12518,7 +12515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1280</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1282</v>
       </c>
@@ -12540,7 +12537,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1284</v>
       </c>
@@ -12551,7 +12548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1286</v>
       </c>
@@ -12562,7 +12559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1288</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1290</v>
       </c>
@@ -12584,7 +12581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1292</v>
       </c>
@@ -12595,7 +12592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1294</v>
       </c>
@@ -12606,7 +12603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1296</v>
       </c>
@@ -12617,7 +12614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1298</v>
       </c>
@@ -12628,7 +12625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1300</v>
       </c>
@@ -12639,7 +12636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1302</v>
       </c>
@@ -12650,7 +12647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1304</v>
       </c>
@@ -12661,7 +12658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1306</v>
       </c>
@@ -12672,7 +12669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1308</v>
       </c>
@@ -12683,7 +12680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1310</v>
       </c>
@@ -12694,7 +12691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1312</v>
       </c>
@@ -12705,7 +12702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1314</v>
       </c>
@@ -12716,7 +12713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1316</v>
       </c>
@@ -12727,7 +12724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1318</v>
       </c>
@@ -12738,7 +12735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1320</v>
       </c>
@@ -12749,7 +12746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1322</v>
       </c>
@@ -12760,7 +12757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1324</v>
       </c>
@@ -12771,7 +12768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1326</v>
       </c>
@@ -12782,7 +12779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1328</v>
       </c>
@@ -12793,7 +12790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1330</v>
       </c>
@@ -12804,7 +12801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1332</v>
       </c>
@@ -12815,7 +12812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1334</v>
       </c>
@@ -12826,7 +12823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1336</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1338</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1340</v>
       </c>
@@ -12859,7 +12856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1342</v>
       </c>
@@ -12870,7 +12867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1344</v>
       </c>
@@ -12881,7 +12878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1346</v>
       </c>
@@ -12892,7 +12889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1348</v>
       </c>
@@ -12903,7 +12900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1350</v>
       </c>
@@ -12914,7 +12911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1352</v>
       </c>
@@ -12925,7 +12922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1354</v>
       </c>
@@ -12936,7 +12933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1356</v>
       </c>
@@ -12947,7 +12944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1358</v>
       </c>
@@ -12958,7 +12955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1360</v>
       </c>
@@ -12969,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1362</v>
       </c>
@@ -12980,7 +12977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1364</v>
       </c>
@@ -12991,7 +12988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1366</v>
       </c>
@@ -13002,7 +12999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1368</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1370</v>
       </c>
@@ -13024,7 +13021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1372</v>
       </c>
@@ -13035,7 +13032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1374</v>
       </c>
@@ -13046,7 +13043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1376</v>
       </c>
@@ -13057,7 +13054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1378</v>
       </c>
@@ -13068,7 +13065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1380</v>
       </c>
@@ -13079,7 +13076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1382</v>
       </c>
@@ -13090,7 +13087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1384</v>
       </c>
@@ -13101,7 +13098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1386</v>
       </c>
@@ -13112,7 +13109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1388</v>
       </c>
@@ -13123,7 +13120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1390</v>
       </c>
@@ -13134,7 +13131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1392</v>
       </c>
@@ -13145,7 +13142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1394</v>
       </c>
@@ -13156,7 +13153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1396</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1398</v>
       </c>
@@ -13178,7 +13175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1400</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1402</v>
       </c>
@@ -13200,7 +13197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1404</v>
       </c>
@@ -13211,7 +13208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1406</v>
       </c>
@@ -13222,7 +13219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1408</v>
       </c>
@@ -13233,7 +13230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1410</v>
       </c>
@@ -13244,7 +13241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1412</v>
       </c>
@@ -13255,7 +13252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1414</v>
       </c>
@@ -13266,7 +13263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1416</v>
       </c>
@@ -13277,7 +13274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1418</v>
       </c>
@@ -13288,7 +13285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1420</v>
       </c>
@@ -13299,7 +13296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1422</v>
       </c>
@@ -13310,18 +13307,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="2" t="s">
+    <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
         <v>1424</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B707" t="s">
         <v>1425</v>
       </c>
-      <c r="C707" s="2" t="s">
+      <c r="C707" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1426</v>
       </c>
@@ -13332,7 +13329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1428</v>
       </c>
@@ -13343,7 +13340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1430</v>
       </c>
@@ -13354,7 +13351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1432</v>
       </c>
@@ -13365,7 +13362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1434</v>
       </c>
@@ -13376,7 +13373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1436</v>
       </c>
@@ -13387,7 +13384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1438</v>
       </c>
@@ -13398,7 +13395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1440</v>
       </c>
@@ -13409,7 +13406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1442</v>
       </c>
@@ -13420,7 +13417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1444</v>
       </c>
@@ -13431,7 +13428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1446</v>
       </c>
@@ -13442,7 +13439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1448</v>
       </c>
@@ -13453,7 +13450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1450</v>
       </c>
@@ -13464,7 +13461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1452</v>
       </c>
@@ -13475,7 +13472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1454</v>
       </c>
@@ -13486,7 +13483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1456</v>
       </c>
@@ -13497,7 +13494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1458</v>
       </c>
@@ -13519,7 +13516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1462</v>
       </c>
@@ -13530,7 +13527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1464</v>
       </c>
@@ -13541,7 +13538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1466</v>
       </c>
@@ -13552,7 +13549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1468</v>
       </c>
@@ -13563,7 +13560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1470</v>
       </c>
@@ -13574,7 +13571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1472</v>
       </c>
@@ -13585,7 +13582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1474</v>
       </c>
@@ -13596,7 +13593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1476</v>
       </c>
@@ -13607,7 +13604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1478</v>
       </c>
@@ -13618,7 +13615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1480</v>
       </c>
@@ -13629,7 +13626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1482</v>
       </c>
@@ -13640,7 +13637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1484</v>
       </c>
@@ -13651,7 +13648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1486</v>
       </c>
@@ -13662,7 +13659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1488</v>
       </c>
@@ -13673,7 +13670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1490</v>
       </c>
@@ -13684,7 +13681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1492</v>
       </c>
@@ -13695,7 +13692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1494</v>
       </c>
@@ -13706,7 +13703,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1496</v>
       </c>
@@ -13717,7 +13714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1498</v>
       </c>
@@ -13728,7 +13725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1500</v>
       </c>
@@ -13739,7 +13736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1502</v>
       </c>
@@ -13750,7 +13747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1504</v>
       </c>
@@ -13761,7 +13758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1506</v>
       </c>
@@ -13772,7 +13769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1508</v>
       </c>
@@ -13783,7 +13780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1510</v>
       </c>
@@ -13794,7 +13791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1512</v>
       </c>
@@ -13805,7 +13802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1514</v>
       </c>
@@ -13816,7 +13813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1516</v>
       </c>
@@ -13827,7 +13824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1518</v>
       </c>
@@ -13838,7 +13835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1520</v>
       </c>
@@ -13849,7 +13846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1522</v>
       </c>
@@ -13860,7 +13857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1524</v>
       </c>
@@ -13871,7 +13868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1526</v>
       </c>
@@ -13882,7 +13879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1528</v>
       </c>
@@ -13893,7 +13890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1530</v>
       </c>
@@ -13904,7 +13901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1532</v>
       </c>
@@ -13915,7 +13912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1534</v>
       </c>
@@ -13926,7 +13923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1536</v>
       </c>
@@ -13937,7 +13934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1538</v>
       </c>
@@ -13948,7 +13945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1540</v>
       </c>
@@ -13959,7 +13956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1542</v>
       </c>
@@ -13970,7 +13967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1544</v>
       </c>
@@ -13981,18 +13978,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="768" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="2" t="s">
+    <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
         <v>1546</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B768" t="s">
         <v>1547</v>
       </c>
-      <c r="C768" s="2" t="s">
+      <c r="C768" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1548</v>
       </c>
@@ -14003,7 +14000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1550</v>
       </c>
@@ -14014,7 +14011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1552</v>
       </c>
@@ -14025,7 +14022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1554</v>
       </c>
@@ -14036,7 +14033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1556</v>
       </c>
@@ -14047,7 +14044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1558</v>
       </c>
@@ -14058,7 +14055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1560</v>
       </c>
@@ -14069,7 +14066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1562</v>
       </c>
@@ -14080,7 +14077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1564</v>
       </c>
@@ -14091,7 +14088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1566</v>
       </c>
@@ -14102,7 +14099,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1568</v>
       </c>
@@ -14113,7 +14110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1570</v>
       </c>
@@ -14124,7 +14121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1572</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1574</v>
       </c>
@@ -14146,7 +14143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1576</v>
       </c>
@@ -14157,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1578</v>
       </c>
@@ -14168,7 +14165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1580</v>
       </c>
@@ -14179,7 +14176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1582</v>
       </c>
@@ -14190,7 +14187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1584</v>
       </c>
@@ -14201,7 +14198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1586</v>
       </c>
@@ -14212,7 +14209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1588</v>
       </c>
@@ -14223,7 +14220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1590</v>
       </c>
@@ -14234,7 +14231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1592</v>
       </c>
@@ -14245,7 +14242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1594</v>
       </c>
@@ -14256,7 +14253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1596</v>
       </c>
@@ -14267,7 +14264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1598</v>
       </c>
@@ -14278,7 +14275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1600</v>
       </c>
@@ -14289,7 +14286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1602</v>
       </c>
@@ -14300,7 +14297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1604</v>
       </c>
@@ -14311,7 +14308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1606</v>
       </c>
@@ -14322,7 +14319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1608</v>
       </c>
@@ -14333,7 +14330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1610</v>
       </c>
@@ -14344,7 +14341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1612</v>
       </c>
@@ -14355,7 +14352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1614</v>
       </c>
@@ -14366,7 +14363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1616</v>
       </c>
@@ -14377,7 +14374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1618</v>
       </c>
@@ -14388,7 +14385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1620</v>
       </c>
@@ -14399,7 +14396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1622</v>
       </c>
@@ -14410,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1624</v>
       </c>
@@ -14421,7 +14418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1626</v>
       </c>
@@ -14432,7 +14429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1628</v>
       </c>
@@ -14443,7 +14440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1630</v>
       </c>
@@ -14454,7 +14451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1632</v>
       </c>
@@ -14465,7 +14462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1634</v>
       </c>
@@ -14476,7 +14473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1636</v>
       </c>
@@ -14487,7 +14484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1638</v>
       </c>
@@ -14498,7 +14495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1640</v>
       </c>
@@ -14509,7 +14506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1642</v>
       </c>
@@ -14520,7 +14517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1644</v>
       </c>
@@ -14531,7 +14528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1646</v>
       </c>
@@ -14542,7 +14539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1648</v>
       </c>
@@ -14553,7 +14550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1650</v>
       </c>
@@ -14564,7 +14561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1652</v>
       </c>
@@ -14575,7 +14572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1654</v>
       </c>
@@ -14586,7 +14583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1656</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1658</v>
       </c>
@@ -14608,7 +14605,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1660</v>
       </c>
@@ -14619,7 +14616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1662</v>
       </c>
@@ -14630,7 +14627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1664</v>
       </c>
@@ -14641,7 +14638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1666</v>
       </c>
@@ -14652,7 +14649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1668</v>
       </c>
@@ -14663,7 +14660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1670</v>
       </c>
@@ -14674,7 +14671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1672</v>
       </c>
@@ -14685,7 +14682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1674</v>
       </c>
@@ -14696,7 +14693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1676</v>
       </c>
@@ -14707,7 +14704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1678</v>
       </c>
@@ -14718,7 +14715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1680</v>
       </c>
@@ -14729,7 +14726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1682</v>
       </c>
@@ -14740,7 +14737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1684</v>
       </c>
@@ -14751,7 +14748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1686</v>
       </c>
@@ -14762,7 +14759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1688</v>
       </c>
@@ -14773,7 +14770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1690</v>
       </c>
@@ -14784,7 +14781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1692</v>
       </c>
@@ -14795,7 +14792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1694</v>
       </c>
@@ -14806,7 +14803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1696</v>
       </c>
@@ -14817,7 +14814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1698</v>
       </c>
@@ -14828,7 +14825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1700</v>
       </c>
@@ -14839,7 +14836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1702</v>
       </c>
@@ -14850,7 +14847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1704</v>
       </c>
@@ -14861,7 +14858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1706</v>
       </c>
@@ -14872,7 +14869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1708</v>
       </c>
@@ -14883,7 +14880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1710</v>
       </c>
@@ -14894,7 +14891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1712</v>
       </c>
@@ -14906,6 +14903,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A851" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TLE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Tefas Funds/data/fon_kategorileri_kontrol.xlsx
+++ b/Tefas Funds/data/fon_kategorileri_kontrol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Portfolio\Tefas Funds\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8F719-4C3D-4130-9937-312A8C1AE636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5C2843-28B5-4219-BC5D-C33C2003BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fon_Kategorileri" sheetId="1" r:id="rId1"/>
@@ -5527,10 +5527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>195</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>197</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>211</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>215</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>221</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>225</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>231</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>241</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>243</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>247</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>249</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>253</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>261</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>263</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>265</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>267</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>269</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>275</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>277</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>283</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>285</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>289</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>291</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>293</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>295</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>297</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>299</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>301</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>303</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>305</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>307</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>309</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>311</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>313</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>315</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>317</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>321</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>331</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>335</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>337</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>339</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>341</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>343</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>345</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>347</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>349</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>351</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>359</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>361</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>363</v>
       </c>
@@ -7487,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>365</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>367</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>369</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>371</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>375</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>379</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>381</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>383</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>385</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>391</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>393</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>395</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>397</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>399</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>401</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>403</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>405</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>407</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>409</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>411</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>413</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>415</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>417</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>419</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>421</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>423</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>425</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>427</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>429</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>431</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>433</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>435</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>437</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>439</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>441</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>443</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>445</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>447</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>449</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>451</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>453</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>455</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>457</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>459</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>461</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>463</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>465</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>467</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>469</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>471</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>473</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>475</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>477</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>479</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>481</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>483</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>485</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>489</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>493</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>495</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>497</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>499</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>501</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>503</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>505</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>507</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>509</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>511</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>513</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>515</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>517</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>519</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>523</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>525</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>527</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>529</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>531</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>533</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>535</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>537</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>539</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>541</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>543</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>545</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>547</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>549</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>551</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>553</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>555</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>557</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>559</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>561</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>563</v>
       </c>
@@ -8587,7 +8588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>565</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>567</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>569</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>571</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>573</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>575</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>577</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>579</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>581</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>583</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>585</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>587</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>589</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>591</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>593</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>595</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>597</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>599</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>601</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>603</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>605</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>607</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>609</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>611</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>613</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>615</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>617</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>619</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>621</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>623</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>625</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>627</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>629</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>633</v>
       </c>
@@ -8972,7 +8973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>635</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>637</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>639</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>641</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>643</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>645</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>647</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>649</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>651</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>653</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>655</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>657</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>659</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>661</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>663</v>
       </c>
@@ -9137,7 +9138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>665</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>667</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>669</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>671</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>673</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>675</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>677</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>679</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>681</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>683</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>685</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>687</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>689</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>691</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>693</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>695</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>697</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>699</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>701</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>703</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>705</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>707</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>709</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>711</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>713</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>715</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>717</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>719</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>721</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>723</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>725</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>727</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>729</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>731</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>733</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>735</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>737</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>742</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>744</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>748</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>750</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>752</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>758</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>760</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>762</v>
       </c>
@@ -9676,7 +9677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>764</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>766</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>768</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>770</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>772</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>774</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>778</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>780</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>782</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>784</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>786</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>788</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>790</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>794</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>796</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>798</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>800</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>802</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>804</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>806</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>808</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>810</v>
       </c>
@@ -9940,7 +9941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>812</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>814</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>816</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>818</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>820</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>822</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>824</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>826</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>828</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>830</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>832</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>834</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>836</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>838</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>840</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>842</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>844</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>846</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>848</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>850</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>852</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>854</v>
       </c>
@@ -10182,7 +10183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>856</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>858</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>860</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>862</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>864</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>866</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>868</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>870</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>872</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>874</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>876</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>878</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>880</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>882</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>884</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>886</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>888</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>890</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>892</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>894</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>896</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>898</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>900</v>
       </c>
@@ -10435,7 +10436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>902</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>904</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>906</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>908</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>910</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>912</v>
       </c>
@@ -10501,7 +10502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>914</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>916</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>918</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>920</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>922</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>924</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>926</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>928</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>930</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>932</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>934</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>936</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>938</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>940</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>942</v>
       </c>
@@ -10666,7 +10667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>944</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>946</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>948</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>950</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>952</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>954</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>956</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>958</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>960</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>962</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>964</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>966</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>968</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>970</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>972</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>974</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>976</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>978</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>980</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>982</v>
       </c>
@@ -10886,7 +10887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>984</v>
       </c>
@@ -10897,7 +10898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>986</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>988</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>990</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>992</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>994</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>996</v>
       </c>
@@ -10963,7 +10964,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>998</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1000</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1002</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1004</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1006</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1008</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1010</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1012</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1014</v>
       </c>
@@ -11062,7 +11063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1016</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1018</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1020</v>
       </c>
@@ -11095,7 +11096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1022</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1024</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1026</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1028</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1030</v>
       </c>
@@ -11150,7 +11151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1032</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1034</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1036</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1038</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1040</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1042</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1044</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1046</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1048</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1050</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1052</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1054</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1056</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1058</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1060</v>
       </c>
@@ -11315,7 +11316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1062</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1064</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1066</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1068</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1070</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1072</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1074</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1076</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1078</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1080</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1082</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1084</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1086</v>
       </c>
@@ -11458,7 +11459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1088</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1090</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1092</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1094</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1096</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1098</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1100</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1102</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1104</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1106</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1108</v>
       </c>
@@ -11579,7 +11580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1110</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1112</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1114</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1116</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1118</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1120</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1122</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1124</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1126</v>
       </c>
@@ -11678,7 +11679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1128</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1130</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1132</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1134</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1136</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1138</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1140</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1142</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1144</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1146</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1148</v>
       </c>
@@ -11799,7 +11800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1150</v>
       </c>
@@ -11810,7 +11811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1152</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1154</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1156</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1158</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1160</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1162</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1164</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1166</v>
       </c>
@@ -11898,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1168</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1170</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1172</v>
       </c>
@@ -11931,7 +11932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1174</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1176</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1178</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1180</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1182</v>
       </c>
@@ -11986,7 +11987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1184</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1186</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1188</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1190</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1192</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1194</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1196</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1198</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1200</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1202</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1204</v>
       </c>
@@ -12107,7 +12108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1206</v>
       </c>
@@ -12118,7 +12119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1208</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1210</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1212</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1214</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1216</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1218</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1220</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1222</v>
       </c>
@@ -12206,7 +12207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1224</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1226</v>
       </c>
@@ -12228,7 +12229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1228</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1230</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1232</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1234</v>
       </c>
@@ -12272,7 +12273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1236</v>
       </c>
@@ -12283,7 +12284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1238</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1240</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1242</v>
       </c>
@@ -12316,7 +12317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1244</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1246</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1248</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1250</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1252</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1254</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1256</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1258</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1260</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1262</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1264</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1266</v>
       </c>
@@ -12448,7 +12449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1268</v>
       </c>
@@ -12459,7 +12460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1270</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1272</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1274</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1276</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1278</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1280</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1282</v>
       </c>
@@ -12536,7 +12537,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1284</v>
       </c>
@@ -12547,7 +12548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1286</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1288</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1290</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1292</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1294</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1296</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1298</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1300</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1302</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1304</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1306</v>
       </c>
@@ -12668,7 +12669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1308</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1310</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1312</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1314</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1316</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1318</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1320</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1322</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1324</v>
       </c>
@@ -12767,7 +12768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1326</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1328</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1330</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1332</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1334</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1336</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1338</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1340</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1342</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1344</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1346</v>
       </c>
@@ -12888,7 +12889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1348</v>
       </c>
@@ -12899,7 +12900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1350</v>
       </c>
@@ -12910,7 +12911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1352</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1354</v>
       </c>
@@ -12932,7 +12933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1356</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1358</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1360</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1362</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1364</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1366</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1368</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1370</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1372</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1374</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1376</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1378</v>
       </c>
@@ -13064,7 +13065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1380</v>
       </c>
@@ -13075,7 +13076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1382</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1384</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1386</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1388</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1390</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1392</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1394</v>
       </c>
@@ -13152,7 +13153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1396</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1398</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1400</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1402</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1404</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1406</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1408</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1410</v>
       </c>
@@ -13240,7 +13241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1412</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1414</v>
       </c>
@@ -13262,7 +13263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1416</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1418</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1420</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1422</v>
       </c>
@@ -13306,7 +13307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1424</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1426</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1428</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1430</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1432</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1434</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1436</v>
       </c>
@@ -13383,7 +13384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1438</v>
       </c>
@@ -13394,7 +13395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1440</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1442</v>
       </c>
@@ -13416,7 +13417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1444</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1446</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1448</v>
       </c>
@@ -13449,7 +13450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1450</v>
       </c>
@@ -13460,7 +13461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1452</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1454</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1456</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1458</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1460</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1462</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1464</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1466</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1468</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1470</v>
       </c>
@@ -13570,7 +13571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1472</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1474</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1476</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1478</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1480</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1482</v>
       </c>
@@ -13636,7 +13637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1484</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1486</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1488</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1490</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1492</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1494</v>
       </c>
@@ -13702,7 +13703,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1496</v>
       </c>
@@ -13713,7 +13714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1498</v>
       </c>
@@ -13724,7 +13725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1500</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1502</v>
       </c>
@@ -13746,7 +13747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1504</v>
       </c>
@@ -13757,7 +13758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1506</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1508</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1510</v>
       </c>
@@ -13790,7 +13791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1512</v>
       </c>
@@ -13801,7 +13802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1514</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1516</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1518</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1520</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1522</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1524</v>
       </c>
@@ -13867,7 +13868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1526</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1528</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1530</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1532</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1534</v>
       </c>
@@ -13922,7 +13923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1536</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1538</v>
       </c>
@@ -13944,7 +13945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1540</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1542</v>
       </c>
@@ -13966,7 +13967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1544</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1548</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1550</v>
       </c>
@@ -14010,7 +14011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1552</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1554</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1556</v>
       </c>
@@ -14043,7 +14044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1558</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1560</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1562</v>
       </c>
@@ -14076,7 +14077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1564</v>
       </c>
@@ -14087,7 +14088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1566</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1568</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1570</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1572</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1574</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1576</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1578</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1580</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1582</v>
       </c>
@@ -14186,7 +14187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1584</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1586</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1588</v>
       </c>
@@ -14219,7 +14220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1590</v>
       </c>
@@ -14230,7 +14231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1592</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1594</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1596</v>
       </c>
@@ -14263,7 +14264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1598</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1600</v>
       </c>
@@ -14285,7 +14286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1602</v>
       </c>
@@ -14296,7 +14297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1604</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1606</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1608</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1610</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1612</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1614</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1616</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1618</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1620</v>
       </c>
@@ -14395,7 +14396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1622</v>
       </c>
@@ -14406,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1624</v>
       </c>
@@ -14417,7 +14418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1626</v>
       </c>
@@ -14428,7 +14429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1628</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1630</v>
       </c>
@@ -14450,7 +14451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1632</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1634</v>
       </c>
@@ -14472,7 +14473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1636</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1638</v>
       </c>
@@ -14494,7 +14495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1640</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1642</v>
       </c>
@@ -14516,7 +14517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1644</v>
       </c>
@@ -14527,7 +14528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1646</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1648</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1650</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1652</v>
       </c>
@@ -14571,7 +14572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1654</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1656</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1658</v>
       </c>
@@ -14604,7 +14605,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1660</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1662</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1664</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1666</v>
       </c>
@@ -14648,7 +14649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1668</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1670</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1672</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1674</v>
       </c>
@@ -14692,7 +14693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1676</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1678</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1680</v>
       </c>
@@ -14725,7 +14726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1682</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1684</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1686</v>
       </c>
@@ -14758,7 +14759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1688</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1690</v>
       </c>
@@ -14780,7 +14781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1692</v>
       </c>
@@ -14791,7 +14792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1694</v>
       </c>
@@ -14802,7 +14803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1696</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1698</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1700</v>
       </c>
@@ -14835,7 +14836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1702</v>
       </c>
@@ -14846,7 +14847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1704</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1706</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1708</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1710</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1712</v>
       </c>
@@ -14902,7 +14903,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C851" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C851" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Diğer Şemsiye Fonu"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>